--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -363,6 +378,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -448,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -460,6 +478,7 @@
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -481,285 +500,330 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -781,2345 +845,2699 @@
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
@@ -466,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -558,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -570,18 +564,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -598,13 +592,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -621,13 +615,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -644,13 +638,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -667,13 +661,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -690,10 +684,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -713,10 +707,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -736,10 +730,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -759,10 +753,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -782,108 +776,108 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>6</v>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
@@ -892,21 +886,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>37</v>
@@ -915,44 +909,44 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>43</v>
@@ -961,21 +955,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>45</v>
@@ -984,44 +978,44 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>50</v>
@@ -1030,21 +1024,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>52</v>
@@ -1053,21 +1047,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>54</v>
@@ -1076,21 +1070,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>56</v>
@@ -1099,21 +1093,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>58</v>
@@ -1122,21 +1116,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>60</v>
@@ -1145,12 +1139,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>61</v>
@@ -1159,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>62</v>
@@ -1168,12 +1162,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>63</v>
@@ -1182,7 +1176,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>64</v>
@@ -1191,12 +1185,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>65</v>
@@ -1205,7 +1199,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>66</v>
@@ -1214,21 +1208,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>68</v>
@@ -1237,21 +1231,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>70</v>
@@ -1260,21 +1254,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>72</v>
@@ -1283,21 +1277,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>74</v>
@@ -1306,21 +1300,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>76</v>
@@ -1329,12 +1323,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>77</v>
@@ -1343,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>78</v>
@@ -1352,12 +1346,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>79</v>
@@ -1366,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>80</v>
@@ -1375,12 +1369,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>81</v>
@@ -1389,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>82</v>
@@ -1398,12 +1392,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>83</v>
@@ -1412,7 +1406,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>84</v>
@@ -1421,21 +1415,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>86</v>
@@ -1444,21 +1438,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>88</v>
@@ -1467,21 +1461,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>90</v>
@@ -1490,67 +1484,67 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>50</v>
@@ -1559,21 +1553,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>52</v>
@@ -1582,21 +1576,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>54</v>
@@ -1605,21 +1599,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>56</v>
@@ -1628,21 +1622,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>58</v>
@@ -1651,21 +1645,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>60</v>
@@ -1674,12 +1668,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>61</v>
@@ -1688,7 +1682,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>62</v>
@@ -1697,12 +1691,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>63</v>
@@ -1711,7 +1705,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>64</v>
@@ -1720,12 +1714,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>65</v>
@@ -1734,7 +1728,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>66</v>
@@ -1743,21 +1737,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>68</v>
@@ -1766,21 +1760,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>70</v>
@@ -1789,21 +1783,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>72</v>
@@ -1812,21 +1806,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>74</v>
@@ -1835,21 +1829,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>76</v>
@@ -1858,12 +1852,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>77</v>
@@ -1872,7 +1866,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>78</v>
@@ -1881,12 +1875,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>79</v>
@@ -1895,7 +1889,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>80</v>
@@ -1904,12 +1898,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>81</v>
@@ -1918,7 +1912,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>82</v>
@@ -1927,12 +1921,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>83</v>
@@ -1941,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>84</v>
@@ -1950,21 +1944,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>86</v>
@@ -1973,21 +1967,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>88</v>
@@ -1996,21 +1990,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>90</v>
@@ -2019,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
@@ -2027,36 +2021,36 @@
         <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>50</v>
@@ -2065,21 +2059,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>52</v>
@@ -2088,21 +2082,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>54</v>
@@ -2111,21 +2105,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>56</v>
@@ -2134,21 +2128,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>58</v>
@@ -2157,21 +2151,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>60</v>
@@ -2180,12 +2174,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>61</v>
@@ -2194,7 +2188,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>62</v>
@@ -2203,12 +2197,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>63</v>
@@ -2217,7 +2211,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>64</v>
@@ -2226,12 +2220,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>65</v>
@@ -2240,7 +2234,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>66</v>
@@ -2249,21 +2243,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>68</v>
@@ -2272,21 +2266,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>70</v>
@@ -2295,21 +2289,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>72</v>
@@ -2318,21 +2312,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>74</v>
@@ -2341,21 +2335,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>76</v>
@@ -2364,12 +2358,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>77</v>
@@ -2378,7 +2372,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>78</v>
@@ -2387,12 +2381,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>79</v>
@@ -2401,7 +2395,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>80</v>
@@ -2410,12 +2404,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>81</v>
@@ -2424,7 +2418,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>82</v>
@@ -2433,12 +2427,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>83</v>
@@ -2447,7 +2441,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>84</v>
@@ -2456,21 +2450,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>86</v>
@@ -2479,21 +2473,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>88</v>
@@ -2502,21 +2496,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>90</v>
@@ -2525,7 +2519,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -2533,36 +2527,36 @@
         <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>50</v>
@@ -2571,44 +2565,44 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>104</v>
@@ -2617,44 +2611,44 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>54</v>
@@ -2663,44 +2657,44 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>108</v>
@@ -2709,44 +2703,44 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>58</v>
@@ -2755,21 +2749,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>60</v>
@@ -2778,21 +2772,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>62</v>
@@ -2801,21 +2795,21 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>64</v>
@@ -2824,12 +2818,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>65</v>
@@ -2838,7 +2832,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>66</v>
@@ -2847,15 +2841,15 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2864,18 +2858,18 @@
         <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>113</v>
@@ -2884,7 +2878,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>114</v>
@@ -2893,12 +2887,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>115</v>
@@ -2907,7 +2901,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>116</v>
@@ -2916,67 +2910,67 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>52</v>
@@ -2985,21 +2979,21 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>54</v>
@@ -3008,21 +3002,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>56</v>
@@ -3031,21 +3025,21 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>58</v>
@@ -3054,21 +3048,21 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>60</v>
@@ -3077,12 +3071,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>61</v>
@@ -3091,21 +3085,21 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>63</v>
@@ -3114,21 +3108,21 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>65</v>
@@ -3137,53 +3131,53 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>70</v>
@@ -3192,21 +3186,21 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>72</v>
@@ -3215,21 +3209,21 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>74</v>
@@ -3238,21 +3232,21 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>76</v>
@@ -3261,12 +3255,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>77</v>
@@ -3275,21 +3269,21 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>79</v>
@@ -3298,21 +3292,21 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>81</v>
@@ -3321,21 +3315,21 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>83</v>
@@ -3344,53 +3338,53 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>88</v>
@@ -3399,21 +3393,21 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>90</v>
@@ -3422,90 +3416,90 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>129</v>
@@ -3514,30 +3508,7 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,67 +32,70 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41-bis</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41-bis</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -817,2698 +820,2698 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
@@ -377,7 +377,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -475,7 +475,7 @@
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,18 +297,6 @@
   </si>
   <si>
     <t>titoloDichiarante</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>evento.madre</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -463,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1564,16 +1552,16 @@
         <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1587,16 +1575,16 @@
         <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1610,7 +1598,7 @@
         <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
@@ -1619,7 +1607,7 @@
         <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1633,7 +1621,7 @@
         <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
@@ -1642,7 +1630,7 @@
         <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1656,16 +1644,16 @@
         <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1679,16 +1667,16 @@
         <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1702,16 +1690,16 @@
         <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1725,16 +1713,16 @@
         <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1748,16 +1736,16 @@
         <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1771,16 +1759,16 @@
         <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1794,16 +1782,16 @@
         <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1817,16 +1805,16 @@
         <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1840,16 +1828,16 @@
         <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1863,16 +1851,16 @@
         <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1886,16 +1874,16 @@
         <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1906,525 +1894,525 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2435,22 +2423,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>32</v>
@@ -2458,19 +2446,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2481,10 +2469,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
@@ -2493,1024 +2481,12 @@
         <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -451,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1210,7 +1216,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>48</v>
@@ -1302,7 +1308,7 @@
         <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>48</v>
@@ -1417,7 +1423,7 @@
         <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>48</v>
@@ -1489,10 +1495,10 @@
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1503,19 +1509,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1526,19 +1532,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1549,19 +1555,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1572,16 +1578,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>101</v>
@@ -1595,19 +1601,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1618,19 +1624,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1641,10 +1647,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
@@ -1653,7 +1659,7 @@
         <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1664,7 +1670,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>104</v>
@@ -1673,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>105</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1710,19 +1716,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1733,19 +1739,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1762,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1808,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1825,10 +1831,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -1837,7 +1843,7 @@
         <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1848,7 +1854,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>110</v>
@@ -1857,7 +1863,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>111</v>
@@ -1871,7 +1877,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>112</v>
@@ -1880,7 +1886,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>113</v>
@@ -1894,571 +1900,571 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2469,24 +2475,70 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -371,7 +371,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -469,7 +472,7 @@
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2432,7 +2435,7 @@
         <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
@@ -2452,10 +2455,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
@@ -2464,7 +2467,7 @@
         <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2475,10 +2478,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2487,7 +2490,7 @@
         <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>22</v>
@@ -2498,10 +2501,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
@@ -2510,7 +2513,7 @@
         <v>30</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2521,10 +2524,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
@@ -2533,7 +2536,7 @@
         <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2435,7 +2432,7 @@
         <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
@@ -2455,10 +2452,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
@@ -2467,7 +2464,7 @@
         <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2478,10 +2475,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2490,7 +2487,7 @@
         <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>22</v>
@@ -2501,10 +2498,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
@@ -2513,7 +2510,7 @@
         <v>30</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2524,10 +2521,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
@@ -2536,7 +2533,7 @@
         <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2432,7 +2435,7 @@
         <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
@@ -2452,10 +2455,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
@@ -2464,7 +2467,7 @@
         <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2475,10 +2478,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2487,7 +2490,7 @@
         <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>22</v>
@@ -2498,10 +2501,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
@@ -2510,7 +2513,7 @@
         <v>30</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2521,10 +2524,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
@@ -2533,7 +2536,7 @@
         <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -348,6 +348,30 @@
   </si>
   <si>
     <t>luogoFiliazione</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Nato morto</t>
@@ -460,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1889,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>113</v>
@@ -1912,7 +1936,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>115</v>
@@ -1926,605 +1950,605 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>128</v>
@@ -2533,15 +2557,107 @@
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -170,6 +170,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -224,13 +230,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1059,7 +1065,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>48</v>
@@ -1151,7 +1157,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>48</v>
@@ -1266,7 +1272,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>48</v>
@@ -1289,7 +1295,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>48</v>
@@ -1358,7 +1364,7 @@
         <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>48</v>
@@ -1473,7 +1479,7 @@
         <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>48</v>
@@ -1545,10 +1551,10 @@
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1565,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1588,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1611,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1628,16 +1634,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>103</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1680,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1697,10 +1703,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
@@ -1709,7 +1715,7 @@
         <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1720,10 +1726,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
@@ -1732,7 +1738,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1766,7 +1772,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>108</v>
@@ -1775,10 +1781,10 @@
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1841,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1864,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1881,10 +1887,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -1893,7 +1899,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1910,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1933,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1979,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1996,10 +2002,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -2008,7 +2014,7 @@
         <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2019,10 +2025,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -2031,7 +2037,7 @@
         <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2042,622 +2048,691 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E94" s="2" t="s">
+      <c r="C96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -490,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1341,7 +1347,7 @@
         <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>48</v>
@@ -1364,7 +1370,7 @@
         <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>48</v>
@@ -1502,7 +1508,7 @@
         <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>48</v>
@@ -1574,10 +1580,10 @@
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1588,19 +1594,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1611,19 +1617,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1634,19 +1640,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1657,16 +1663,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>105</v>
@@ -1680,19 +1686,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1709,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1726,19 +1732,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1749,10 +1755,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
@@ -1761,7 +1767,7 @@
         <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1772,7 +1778,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>108</v>
@@ -1781,7 +1787,7 @@
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>109</v>
@@ -1795,19 +1801,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1824,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1841,19 +1847,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1864,19 +1870,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1887,19 +1893,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1910,19 +1916,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1933,10 +1939,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -1945,7 +1951,7 @@
         <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1956,7 +1962,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>114</v>
@@ -1965,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>115</v>
@@ -1979,7 +1985,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>116</v>
@@ -1988,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>117</v>
@@ -2002,7 +2008,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>118</v>
@@ -2011,7 +2017,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>119</v>
@@ -2025,7 +2031,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>120</v>
@@ -2034,7 +2040,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>121</v>
@@ -2048,7 +2054,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>122</v>
@@ -2071,7 +2077,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>124</v>
@@ -2080,7 +2086,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>125</v>
@@ -2094,617 +2100,617 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2715,24 +2721,70 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -496,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1531,7 +1537,7 @@
         <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>48</v>
@@ -1603,10 +1609,10 @@
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1623,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1669,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1686,16 +1692,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>107</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1778,10 +1784,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
@@ -1790,7 +1796,7 @@
         <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1801,7 +1807,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>110</v>
@@ -1810,7 +1816,7 @@
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>111</v>
@@ -1824,19 +1830,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1853,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1962,10 +1968,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -1974,7 +1980,7 @@
         <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1985,7 +1991,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>116</v>
@@ -1994,7 +2000,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>117</v>
@@ -2008,7 +2014,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>118</v>
@@ -2017,7 +2023,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>119</v>
@@ -2031,7 +2037,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>120</v>
@@ -2040,7 +2046,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>121</v>
@@ -2054,7 +2060,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>122</v>
@@ -2063,7 +2069,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>123</v>
@@ -2077,7 +2083,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>124</v>
@@ -2100,7 +2106,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>126</v>
@@ -2109,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>127</v>
@@ -2123,640 +2129,640 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2767,24 +2773,70 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -594,30 +600,30 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -634,13 +640,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -657,13 +663,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -680,13 +686,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -703,13 +709,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -726,10 +732,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -749,10 +755,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -772,10 +778,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -795,10 +801,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -818,10 +824,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -840,86 +846,86 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
@@ -928,21 +934,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>38</v>
@@ -951,44 +957,44 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>44</v>
@@ -997,21 +1003,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>46</v>
@@ -1020,44 +1026,44 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
@@ -1066,21 +1072,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>53</v>
@@ -1089,21 +1095,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>55</v>
@@ -1112,21 +1118,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>57</v>
@@ -1135,21 +1141,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>59</v>
@@ -1158,21 +1164,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>61</v>
@@ -1181,21 +1187,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>63</v>
@@ -1204,12 +1210,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>64</v>
@@ -1218,7 +1224,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>65</v>
@@ -1227,12 +1233,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>66</v>
@@ -1241,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>67</v>
@@ -1250,12 +1256,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>68</v>
@@ -1264,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>69</v>
@@ -1273,12 +1279,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>70</v>
@@ -1287,7 +1293,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>71</v>
@@ -1296,12 +1302,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>72</v>
@@ -1310,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>73</v>
@@ -1319,21 +1325,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>75</v>
@@ -1342,21 +1348,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>77</v>
@@ -1365,12 +1371,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>78</v>
@@ -1379,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>79</v>
@@ -1388,12 +1394,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>80</v>
@@ -1402,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>81</v>
@@ -1411,12 +1417,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>82</v>
@@ -1425,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>83</v>
@@ -1434,12 +1440,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>84</v>
@@ -1448,7 +1454,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>85</v>
@@ -1457,12 +1463,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>86</v>
@@ -1471,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>87</v>
@@ -1480,12 +1486,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>88</v>
@@ -1494,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>89</v>
@@ -1503,12 +1509,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>90</v>
@@ -1517,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>91</v>
@@ -1526,12 +1532,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>92</v>
@@ -1540,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>93</v>
@@ -1549,21 +1555,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>95</v>
@@ -1572,21 +1578,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>97</v>
@@ -1595,21 +1601,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>99</v>
@@ -1618,67 +1624,67 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>51</v>
@@ -1687,44 +1693,44 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>109</v>
@@ -1733,44 +1739,44 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>55</v>
@@ -1779,21 +1785,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>57</v>
@@ -1802,44 +1808,44 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>113</v>
@@ -1848,44 +1854,44 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>61</v>
@@ -1894,21 +1900,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>63</v>
@@ -1917,21 +1923,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>65</v>
@@ -1940,21 +1946,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>67</v>
@@ -1963,12 +1969,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>68</v>
@@ -1977,7 +1983,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>69</v>
@@ -1986,15 +1992,15 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -2003,18 +2009,18 @@
         <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>118</v>
@@ -2023,7 +2029,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>119</v>
@@ -2032,12 +2038,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>120</v>
@@ -2046,7 +2052,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>121</v>
@@ -2055,12 +2061,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>122</v>
@@ -2069,7 +2075,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>123</v>
@@ -2078,12 +2084,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>124</v>
@@ -2092,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>125</v>
@@ -2101,12 +2107,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>126</v>
@@ -2124,12 +2130,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>128</v>
@@ -2138,7 +2144,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>129</v>
@@ -2147,67 +2153,67 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>53</v>
@@ -2216,21 +2222,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>55</v>
@@ -2239,21 +2245,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>57</v>
@@ -2262,21 +2268,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>59</v>
@@ -2285,21 +2291,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>61</v>
@@ -2308,21 +2314,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>63</v>
@@ -2331,12 +2337,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>64</v>
@@ -2345,21 +2351,21 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>66</v>
@@ -2368,21 +2374,21 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>68</v>
@@ -2391,21 +2397,21 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>70</v>
@@ -2414,53 +2420,53 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>75</v>
@@ -2469,35 +2475,35 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>78</v>
@@ -2506,21 +2512,21 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>80</v>
@@ -2529,21 +2535,21 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>82</v>
@@ -2552,21 +2558,21 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>84</v>
@@ -2575,21 +2581,21 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>86</v>
@@ -2598,21 +2604,21 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>88</v>
@@ -2621,21 +2627,21 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>90</v>
@@ -2644,21 +2650,21 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>92</v>
@@ -2667,53 +2673,53 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>97</v>
@@ -2722,21 +2728,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>99</v>
@@ -2745,90 +2751,90 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>143</v>
@@ -2837,7 +2843,30 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -1359,7 +1359,7 @@
         <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>50</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -2463,7 +2463,7 @@
         <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>133</v>
@@ -2486,7 +2486,7 @@
         <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>133</v>
@@ -2495,7 +2495,7 @@
         <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>135</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_059.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -508,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1152,7 +1164,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>50</v>
@@ -1175,7 +1187,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>50</v>
@@ -1221,7 +1233,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>50</v>
@@ -1244,7 +1256,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>50</v>
@@ -1589,7 +1601,7 @@
         <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>50</v>
@@ -1612,7 +1624,7 @@
         <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>50</v>
@@ -1661,10 +1673,10 @@
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1687,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1710,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1733,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1756,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1779,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1802,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1825,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1848,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1871,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1894,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,16 +1940,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>65</v>
@@ -1951,16 +1963,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>67</v>
@@ -1974,7 +1986,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>68</v>
@@ -1983,7 +1995,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>69</v>
@@ -1997,16 +2009,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>71</v>
@@ -2020,19 +2032,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,7 +2078,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>122</v>
@@ -2075,7 +2087,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>123</v>
@@ -2089,7 +2101,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>124</v>
@@ -2098,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>125</v>
@@ -2112,7 +2124,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>126</v>
@@ -2121,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>127</v>
@@ -2135,7 +2147,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>128</v>
@@ -2144,7 +2156,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>129</v>
@@ -2158,7 +2170,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>130</v>
@@ -2167,7 +2179,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>131</v>
@@ -2181,691 +2193,783 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="E102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>34</v>
       </c>
     </row>
